--- a/Code/Results/Cases/Case_9_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027028243030734</v>
+        <v>1.024722490983409</v>
       </c>
       <c r="D2">
-        <v>1.046522884395907</v>
+        <v>1.043350811043845</v>
       </c>
       <c r="E2">
-        <v>1.029524778812288</v>
+        <v>1.027629036191687</v>
       </c>
       <c r="F2">
-        <v>1.049483320617011</v>
+        <v>1.047227144287606</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062116777874391</v>
+        <v>1.060317554375855</v>
       </c>
       <c r="J2">
-        <v>1.048429539212246</v>
+        <v>1.046188088858892</v>
       </c>
       <c r="K2">
-        <v>1.057370008094535</v>
+        <v>1.054237513914199</v>
       </c>
       <c r="L2">
-        <v>1.040587557655263</v>
+        <v>1.038716419904568</v>
       </c>
       <c r="M2">
-        <v>1.060293774503854</v>
+        <v>1.058065521177537</v>
       </c>
       <c r="N2">
-        <v>1.019272671898041</v>
+        <v>1.019009710939783</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056290699551533</v>
+        <v>1.054527221950994</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051635699868071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049429456167122</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02615869878117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031101555557529</v>
+        <v>1.02854595736186</v>
       </c>
       <c r="D3">
-        <v>1.049382964778527</v>
+        <v>1.045932523935683</v>
       </c>
       <c r="E3">
-        <v>1.032799942863699</v>
+        <v>1.03067165268403</v>
       </c>
       <c r="F3">
-        <v>1.052333364263658</v>
+        <v>1.049871725927895</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063433192933142</v>
+        <v>1.061461422829903</v>
       </c>
       <c r="J3">
-        <v>1.050778830917443</v>
+        <v>1.048287564855984</v>
       </c>
       <c r="K3">
-        <v>1.059420690547167</v>
+        <v>1.056009578860232</v>
       </c>
       <c r="L3">
-        <v>1.043029662223076</v>
+        <v>1.040926566961364</v>
       </c>
       <c r="M3">
-        <v>1.062337712540523</v>
+        <v>1.059903906421847</v>
       </c>
       <c r="N3">
-        <v>1.02012435785548</v>
+        <v>1.019598533323703</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05790830331109</v>
+        <v>1.055982151611937</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.053083043801215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050679524704297</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026552059091121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033689757932963</v>
+        <v>1.030977359790038</v>
       </c>
       <c r="D4">
-        <v>1.05120419143681</v>
+        <v>1.047578088793736</v>
       </c>
       <c r="E4">
-        <v>1.034886152235911</v>
+        <v>1.032611940452556</v>
       </c>
       <c r="F4">
-        <v>1.054150733811004</v>
+        <v>1.051559668572112</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064261006698901</v>
+        <v>1.062180249311772</v>
       </c>
       <c r="J4">
-        <v>1.052269245999274</v>
+        <v>1.049620535885396</v>
       </c>
       <c r="K4">
-        <v>1.060721540612545</v>
+        <v>1.057134295657183</v>
       </c>
       <c r="L4">
-        <v>1.044581003291856</v>
+        <v>1.042332077480445</v>
       </c>
       <c r="M4">
-        <v>1.063636748453838</v>
+        <v>1.061073226079098</v>
       </c>
       <c r="N4">
-        <v>1.02066435880832</v>
+        <v>1.019972478851309</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.058936378387343</v>
+        <v>1.056907569828637</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.054003703972128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05147573262522</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026799468235807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034772203596969</v>
+        <v>1.031994156427939</v>
       </c>
       <c r="D5">
-        <v>1.051968766739898</v>
+        <v>1.048269222238226</v>
       </c>
       <c r="E5">
-        <v>1.03576089470509</v>
+        <v>1.033425469410602</v>
       </c>
       <c r="F5">
-        <v>1.054912832055278</v>
+        <v>1.052267649137606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.06460696884332</v>
+        <v>1.062480551456771</v>
       </c>
       <c r="J5">
-        <v>1.052894144075315</v>
+        <v>1.050179389592722</v>
       </c>
       <c r="K5">
-        <v>1.061268056024447</v>
+        <v>1.057607108499386</v>
       </c>
       <c r="L5">
-        <v>1.045231781547501</v>
+        <v>1.042921626191536</v>
       </c>
       <c r="M5">
-        <v>1.064181642212993</v>
+        <v>1.061563834677112</v>
       </c>
       <c r="N5">
-        <v>1.02089217697683</v>
+        <v>1.020130205238124</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059367614472708</v>
+        <v>1.057295844960129</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.054397157003824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051817790595084</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026903937171818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034959870372393</v>
+        <v>1.032169835593213</v>
       </c>
       <c r="D6">
-        <v>1.05210378774621</v>
+        <v>1.048391214773438</v>
       </c>
       <c r="E6">
-        <v>1.035913878798888</v>
+        <v>1.033567116684436</v>
       </c>
       <c r="F6">
-        <v>1.055045679609533</v>
+        <v>1.052390828178257</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.064669088853397</v>
+        <v>1.062534485471119</v>
       </c>
       <c r="J6">
-        <v>1.053005073984784</v>
+        <v>1.050278279789797</v>
       </c>
       <c r="K6">
-        <v>1.061366435202248</v>
+        <v>1.05769241879883</v>
       </c>
       <c r="L6">
-        <v>1.045347145479504</v>
+        <v>1.043025658662651</v>
       </c>
       <c r="M6">
-        <v>1.064278009329628</v>
+        <v>1.061650508427707</v>
       </c>
       <c r="N6">
-        <v>1.02093442208705</v>
+        <v>1.020159240718564</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059443880650772</v>
+        <v>1.057364439868582</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054475294710864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051887563177638</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026923978629535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033722001633778</v>
+        <v>1.031015496349698</v>
       </c>
       <c r="D7">
-        <v>1.051233411630497</v>
+        <v>1.047611292614283</v>
       </c>
       <c r="E7">
-        <v>1.034915634951811</v>
+        <v>1.032646840597346</v>
       </c>
       <c r="F7">
-        <v>1.054175100479085</v>
+        <v>1.051587417176438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064277407334389</v>
+        <v>1.062199632048995</v>
       </c>
       <c r="J7">
-        <v>1.052294945211735</v>
+        <v>1.049651960739389</v>
       </c>
       <c r="K7">
-        <v>1.06074764166815</v>
+        <v>1.057164321946718</v>
       </c>
       <c r="L7">
-        <v>1.044607292778451</v>
+        <v>1.042363713827223</v>
       </c>
       <c r="M7">
-        <v>1.0636580599153</v>
+        <v>1.061097872744311</v>
       </c>
       <c r="N7">
-        <v>1.020678669131361</v>
+        <v>1.020011396046891</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.058953244562686</v>
+        <v>1.056927075580311</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.054041892116301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051518709219127</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026810930911494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028437512429129</v>
+        <v>1.026072064616707</v>
       </c>
       <c r="D8">
-        <v>1.047519553217801</v>
+        <v>1.04427141483072</v>
       </c>
       <c r="E8">
-        <v>1.03066138971317</v>
+        <v>1.028710836178153</v>
       </c>
       <c r="F8">
-        <v>1.050470045555701</v>
+        <v>1.048159365226873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062581537401132</v>
+        <v>1.060737139416021</v>
       </c>
       <c r="J8">
-        <v>1.049251776084959</v>
+        <v>1.046950086690456</v>
       </c>
       <c r="K8">
-        <v>1.058092130876314</v>
+        <v>1.054883322081168</v>
       </c>
       <c r="L8">
-        <v>1.041441452233973</v>
+        <v>1.03951545304423</v>
       </c>
       <c r="M8">
-        <v>1.061007159151135</v>
+        <v>1.058724231488127</v>
       </c>
       <c r="N8">
-        <v>1.01957736976414</v>
+        <v>1.019309830382936</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.056855283438565</v>
+        <v>1.055048536925866</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.052168785192477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049910864406389</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02631160923391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018715816440922</v>
+        <v>1.016965445568084</v>
       </c>
       <c r="D9">
-        <v>1.040709924502023</v>
+        <v>1.038138056927431</v>
       </c>
       <c r="E9">
-        <v>1.022871619996235</v>
+        <v>1.021494346863874</v>
       </c>
       <c r="F9">
-        <v>1.043704480060069</v>
+        <v>1.041894909694363</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059384948485289</v>
+        <v>1.057959631111191</v>
       </c>
       <c r="J9">
-        <v>1.043624551231045</v>
+        <v>1.041933013072506</v>
       </c>
       <c r="K9">
-        <v>1.053175320709843</v>
+        <v>1.050641256393827</v>
       </c>
       <c r="L9">
-        <v>1.035604208358104</v>
+        <v>1.034248059987716</v>
       </c>
       <c r="M9">
-        <v>1.056126157754294</v>
+        <v>1.054342967784342</v>
       </c>
       <c r="N9">
-        <v>1.017530178074051</v>
+        <v>1.017910492186342</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.052992373398603</v>
+        <v>1.051581120687237</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048689258898661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046908130137641</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025354655218693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012046080249834</v>
+        <v>1.010758251982688</v>
       </c>
       <c r="D10">
-        <v>1.036086941742941</v>
+        <v>1.034007678720186</v>
       </c>
       <c r="E10">
-        <v>1.017577376031811</v>
+        <v>1.016630057595803</v>
       </c>
       <c r="F10">
-        <v>1.039170301164538</v>
+        <v>1.037729063707123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.057178149033986</v>
+        <v>1.056059333098361</v>
       </c>
       <c r="J10">
-        <v>1.039789782706783</v>
+        <v>1.03855143786753</v>
       </c>
       <c r="K10">
-        <v>1.049833833583226</v>
+        <v>1.047788911716268</v>
       </c>
       <c r="L10">
-        <v>1.031636355913361</v>
+        <v>1.030705405590354</v>
       </c>
       <c r="M10">
-        <v>1.052866593360874</v>
+        <v>1.051448959286934</v>
       </c>
       <c r="N10">
-        <v>1.016159740048427</v>
+        <v>1.017099561665373</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050463387073203</v>
+        <v>1.049341507184447</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046343239369641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044909642240124</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02472148723921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009791918796925</v>
+        <v>1.008609664629419</v>
       </c>
       <c r="D11">
-        <v>1.03471271762036</v>
+        <v>1.032765224177888</v>
       </c>
       <c r="E11">
-        <v>1.01594546815066</v>
+        <v>1.015074495024846</v>
       </c>
       <c r="F11">
-        <v>1.038195435770586</v>
+        <v>1.036850403175525</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056642699731436</v>
+        <v>1.055601211467237</v>
       </c>
       <c r="J11">
-        <v>1.03876294083469</v>
+        <v>1.03762860652142</v>
       </c>
       <c r="K11">
-        <v>1.049008406806381</v>
+        <v>1.047094604268803</v>
       </c>
       <c r="L11">
-        <v>1.030572813572519</v>
+        <v>1.02971761968907</v>
       </c>
       <c r="M11">
-        <v>1.052431282415534</v>
+        <v>1.051109299538558</v>
       </c>
       <c r="N11">
-        <v>1.015998148418506</v>
+        <v>1.01719693871462</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.050549107290615</v>
+        <v>1.049503435587702</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045792012948215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044454346805957</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02468425952049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009176934517182</v>
+        <v>1.007979781631866</v>
       </c>
       <c r="D12">
-        <v>1.03441335776472</v>
+        <v>1.032470968513546</v>
       </c>
       <c r="E12">
-        <v>1.01557054024214</v>
+        <v>1.014666759201518</v>
       </c>
       <c r="F12">
-        <v>1.038180937526293</v>
+        <v>1.036836862169181</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056587008150207</v>
+        <v>1.055544096876755</v>
       </c>
       <c r="J12">
-        <v>1.038597924747465</v>
+        <v>1.037450220664268</v>
       </c>
       <c r="K12">
-        <v>1.048909672426719</v>
+        <v>1.047001440236553</v>
       </c>
       <c r="L12">
-        <v>1.030405391830748</v>
+        <v>1.029518260289532</v>
       </c>
       <c r="M12">
-        <v>1.052611470679298</v>
+        <v>1.051290791695385</v>
       </c>
       <c r="N12">
-        <v>1.016095003705091</v>
+        <v>1.017336935499602</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.051013932743585</v>
+        <v>1.049969637484118</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045722206409582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044388479708004</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024743164852438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009808969465709</v>
+        <v>1.008487161874115</v>
       </c>
       <c r="D13">
-        <v>1.034949105586795</v>
+        <v>1.032902765053999</v>
       </c>
       <c r="E13">
-        <v>1.016161423404597</v>
+        <v>1.0151238170138</v>
       </c>
       <c r="F13">
-        <v>1.038935921575644</v>
+        <v>1.037509877388416</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056918978867633</v>
+        <v>1.055805492461789</v>
       </c>
       <c r="J13">
-        <v>1.039112795105579</v>
+        <v>1.037845298747945</v>
       </c>
       <c r="K13">
-        <v>1.049394135621481</v>
+        <v>1.047383616906628</v>
       </c>
       <c r="L13">
-        <v>1.030942393398313</v>
+        <v>1.02992381229245</v>
       </c>
       <c r="M13">
-        <v>1.053311685449358</v>
+        <v>1.051910337936484</v>
       </c>
       <c r="N13">
-        <v>1.016413541266199</v>
+        <v>1.017492706048125</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051841153691837</v>
+        <v>1.05073334437554</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046062272057681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044655979337823</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024889258402766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010813869041464</v>
+        <v>1.009358158086447</v>
       </c>
       <c r="D14">
-        <v>1.035701158795785</v>
+        <v>1.033535009306646</v>
       </c>
       <c r="E14">
-        <v>1.017009845296751</v>
+        <v>1.015836662016396</v>
       </c>
       <c r="F14">
-        <v>1.039810984164155</v>
+        <v>1.038291975270667</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.057325453982701</v>
+        <v>1.056132854506976</v>
       </c>
       <c r="J14">
-        <v>1.039778618599102</v>
+        <v>1.038381848729085</v>
       </c>
       <c r="K14">
-        <v>1.049995939742239</v>
+        <v>1.04786723010935</v>
       </c>
       <c r="L14">
-        <v>1.031634513245637</v>
+        <v>1.030482562362216</v>
       </c>
       <c r="M14">
-        <v>1.054035284440581</v>
+        <v>1.052542241505481</v>
       </c>
       <c r="N14">
-        <v>1.016735345112117</v>
+        <v>1.01761106739832</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052584765821945</v>
+        <v>1.051404625072797</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046489159478443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044999437613923</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025031857076865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011341187990473</v>
+        <v>1.009828005135023</v>
       </c>
       <c r="D15">
-        <v>1.036079406069738</v>
+        <v>1.033859404967689</v>
       </c>
       <c r="E15">
-        <v>1.017438222000769</v>
+        <v>1.016209318093497</v>
       </c>
       <c r="F15">
-        <v>1.040210570893274</v>
+        <v>1.038650181459748</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057517755855085</v>
+        <v>1.056290183865063</v>
       </c>
       <c r="J15">
-        <v>1.040101371852267</v>
+        <v>1.03864891555937</v>
       </c>
       <c r="K15">
-        <v>1.050283217068837</v>
+        <v>1.048101292396712</v>
       </c>
       <c r="L15">
-        <v>1.031968461168315</v>
+        <v>1.030761623544653</v>
       </c>
       <c r="M15">
-        <v>1.054344084375124</v>
+        <v>1.052810162289419</v>
       </c>
       <c r="N15">
-        <v>1.016869008623905</v>
+        <v>1.017651452079602</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052866041534969</v>
+        <v>1.051653620293044</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046698051520809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045171277076482</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025091066343833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014049130915111</v>
+        <v>1.012304357007185</v>
       </c>
       <c r="D16">
-        <v>1.037945270279682</v>
+        <v>1.035492464585403</v>
       </c>
       <c r="E16">
-        <v>1.019564043879619</v>
+        <v>1.018123715764236</v>
       </c>
       <c r="F16">
-        <v>1.042020474370091</v>
+        <v>1.040283788750344</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058410085118078</v>
+        <v>1.057034865694714</v>
       </c>
       <c r="J16">
-        <v>1.041641181814432</v>
+        <v>1.039962905344337</v>
       </c>
       <c r="K16">
-        <v>1.051626851264222</v>
+        <v>1.049214270973312</v>
       </c>
       <c r="L16">
-        <v>1.033553157345437</v>
+        <v>1.032137533515709</v>
       </c>
       <c r="M16">
-        <v>1.055635760578106</v>
+        <v>1.053927245507848</v>
       </c>
       <c r="N16">
-        <v>1.017393072474382</v>
+        <v>1.017787266748372</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.053848635609411</v>
+        <v>1.052498176855057</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047651137288351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045961585119864</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025324125904826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015603982163951</v>
+        <v>1.013760190300506</v>
       </c>
       <c r="D17">
-        <v>1.038985528268976</v>
+        <v>1.036423015341277</v>
       </c>
       <c r="E17">
-        <v>1.020755851598515</v>
+        <v>1.019231368238319</v>
       </c>
       <c r="F17">
-        <v>1.042947891155574</v>
+        <v>1.04112968309702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058880400137233</v>
+        <v>1.057437718215589</v>
       </c>
       <c r="J17">
-        <v>1.042475452587103</v>
+        <v>1.040699664667836</v>
       </c>
       <c r="K17">
-        <v>1.052342866894476</v>
+        <v>1.049821196545883</v>
       </c>
       <c r="L17">
-        <v>1.03440948626098</v>
+        <v>1.032910399789669</v>
       </c>
       <c r="M17">
-        <v>1.056242581343688</v>
+        <v>1.054453044949957</v>
       </c>
       <c r="N17">
-        <v>1.017627862072003</v>
+        <v>1.017859322091683</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.054200551605909</v>
+        <v>1.052785912594594</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048159917853931</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046393485453261</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025429592882037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016281078406294</v>
+        <v>1.014437870182802</v>
       </c>
       <c r="D18">
-        <v>1.039373338976313</v>
+        <v>1.036793778126748</v>
       </c>
       <c r="E18">
-        <v>1.021219547134403</v>
+        <v>1.019708315750893</v>
       </c>
       <c r="F18">
-        <v>1.043143715727523</v>
+        <v>1.041315121197679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059006575375942</v>
+        <v>1.057556936642309</v>
       </c>
       <c r="J18">
-        <v>1.042742809253269</v>
+        <v>1.040966313647422</v>
       </c>
       <c r="K18">
-        <v>1.052545367786081</v>
+        <v>1.050006251745244</v>
       </c>
       <c r="L18">
-        <v>1.034681787152244</v>
+        <v>1.033195313775245</v>
       </c>
       <c r="M18">
-        <v>1.056257088665734</v>
+        <v>1.054456873844898</v>
       </c>
       <c r="N18">
-        <v>1.017612374724241</v>
+        <v>1.017829215373547</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.053977051469946</v>
+        <v>1.052553680574394</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048291634942593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046511726374612</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025417129969392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016169497265805</v>
+        <v>1.014409047264589</v>
       </c>
       <c r="D19">
-        <v>1.039179094511</v>
+        <v>1.036661382980358</v>
       </c>
       <c r="E19">
-        <v>1.021032306920863</v>
+        <v>1.01961418225292</v>
       </c>
       <c r="F19">
-        <v>1.042677015976701</v>
+        <v>1.040898158187181</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058827308504008</v>
+        <v>1.057421742596273</v>
       </c>
       <c r="J19">
-        <v>1.04250411478395</v>
+        <v>1.040807023307297</v>
       </c>
       <c r="K19">
-        <v>1.052293053273965</v>
+        <v>1.049814622979038</v>
       </c>
       <c r="L19">
-        <v>1.034434957806554</v>
+        <v>1.03303994999384</v>
       </c>
       <c r="M19">
-        <v>1.055736802321941</v>
+        <v>1.053985435639969</v>
       </c>
       <c r="N19">
-        <v>1.017384357827618</v>
+        <v>1.017694365098334</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053244370861174</v>
+        <v>1.051859181170019</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048119540972319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046383166565718</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025302424147987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013826222145319</v>
+        <v>1.012380417025678</v>
       </c>
       <c r="D20">
-        <v>1.037336082011485</v>
+        <v>1.035101298331515</v>
       </c>
       <c r="E20">
-        <v>1.018999605607592</v>
+        <v>1.017902121151821</v>
       </c>
       <c r="F20">
-        <v>1.040385537954957</v>
+        <v>1.038825684728414</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057786510650144</v>
+        <v>1.056568287461019</v>
       </c>
       <c r="J20">
-        <v>1.040834377007031</v>
+        <v>1.039442297345726</v>
       </c>
       <c r="K20">
-        <v>1.050752723648138</v>
+        <v>1.048553791306278</v>
       </c>
       <c r="L20">
-        <v>1.03271639917508</v>
+        <v>1.031637321768442</v>
       </c>
       <c r="M20">
-        <v>1.053753577251912</v>
+        <v>1.052218539335364</v>
       </c>
       <c r="N20">
-        <v>1.016549374408316</v>
+        <v>1.017251014019186</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051154932504781</v>
+        <v>1.049940128074736</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047034368137818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045495997068361</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024897095800416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00867538929784</v>
+        <v>1.007746262757403</v>
       </c>
       <c r="D21">
-        <v>1.033736704629907</v>
+        <v>1.03199867196648</v>
       </c>
       <c r="E21">
-        <v>1.014893237207921</v>
+        <v>1.014289722768923</v>
       </c>
       <c r="F21">
-        <v>1.036789880907448</v>
+        <v>1.035611010340653</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.056022708791686</v>
+        <v>1.055124206870927</v>
       </c>
       <c r="J21">
-        <v>1.037814821294861</v>
+        <v>1.036923648490319</v>
       </c>
       <c r="K21">
-        <v>1.048105923975166</v>
+        <v>1.046398161606163</v>
       </c>
       <c r="L21">
-        <v>1.029597841327089</v>
+        <v>1.02900533661163</v>
       </c>
       <c r="M21">
-        <v>1.051106242673079</v>
+        <v>1.049947733311017</v>
       </c>
       <c r="N21">
-        <v>1.015430513760433</v>
+        <v>1.016978476063769</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.049019503991156</v>
+        <v>1.048102631611927</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045166223707568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043975450688424</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024417919826267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005392140629142</v>
+        <v>1.004790155372766</v>
       </c>
       <c r="D22">
-        <v>1.031453463810865</v>
+        <v>1.030029822331232</v>
       </c>
       <c r="E22">
-        <v>1.012287356301043</v>
+        <v>1.011997347933303</v>
       </c>
       <c r="F22">
-        <v>1.034540276600795</v>
+        <v>1.033602759714139</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054897593101144</v>
+        <v>1.054200756675993</v>
       </c>
       <c r="J22">
-        <v>1.035897478040619</v>
+        <v>1.035321533911741</v>
       </c>
       <c r="K22">
-        <v>1.046426553719137</v>
+        <v>1.045028967152416</v>
       </c>
       <c r="L22">
-        <v>1.027619265935953</v>
+        <v>1.027334823653337</v>
       </c>
       <c r="M22">
-        <v>1.049457193262711</v>
+        <v>1.048536690978809</v>
       </c>
       <c r="N22">
-        <v>1.014725193173459</v>
+        <v>1.016802975398285</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047714405990475</v>
+        <v>1.046985896988537</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043965548658303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042992776737581</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024115727669766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007120990559382</v>
+        <v>1.006332728798596</v>
       </c>
       <c r="D23">
-        <v>1.03264945667687</v>
+        <v>1.0310494582137</v>
       </c>
       <c r="E23">
-        <v>1.013654689492145</v>
+        <v>1.013185796521432</v>
       </c>
       <c r="F23">
-        <v>1.035722524075187</v>
+        <v>1.034649093016964</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055485545129134</v>
+        <v>1.054675019500539</v>
       </c>
       <c r="J23">
-        <v>1.036900375369407</v>
+        <v>1.036145200924863</v>
       </c>
       <c r="K23">
-        <v>1.047302230990031</v>
+        <v>1.045730762459874</v>
       </c>
       <c r="L23">
-        <v>1.028653749839264</v>
+        <v>1.028193619425483</v>
       </c>
       <c r="M23">
-        <v>1.050320822439111</v>
+        <v>1.049266372278037</v>
       </c>
       <c r="N23">
-        <v>1.015088480941367</v>
+        <v>1.016842855003788</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.048397903511334</v>
+        <v>1.047563385451778</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04457516638053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043478509678961</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024264050076907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013815127695485</v>
+        <v>1.012383763966757</v>
       </c>
       <c r="D24">
-        <v>1.037301768372125</v>
+        <v>1.035076993523693</v>
       </c>
       <c r="E24">
-        <v>1.018970873853173</v>
+        <v>1.017889844314052</v>
       </c>
       <c r="F24">
-        <v>1.040321221919111</v>
+        <v>1.038769711649464</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057753342437043</v>
+        <v>1.056542550802853</v>
       </c>
       <c r="J24">
-        <v>1.040791554539042</v>
+        <v>1.03941330577038</v>
       </c>
       <c r="K24">
-        <v>1.050704027661653</v>
+        <v>1.048514900630798</v>
       </c>
       <c r="L24">
-        <v>1.032672833544968</v>
+        <v>1.031609912759107</v>
       </c>
       <c r="M24">
-        <v>1.053675412562357</v>
+        <v>1.052148557067303</v>
       </c>
       <c r="N24">
-        <v>1.016507025294473</v>
+        <v>1.01722366234725</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051052803262136</v>
+        <v>1.049844415891023</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046972937888987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04543881626148</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024873030000166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021306419955681</v>
+        <v>1.019374719043482</v>
       </c>
       <c r="D25">
-        <v>1.042530378985222</v>
+        <v>1.039766486735316</v>
       </c>
       <c r="E25">
-        <v>1.024948440656069</v>
+        <v>1.023400736395446</v>
       </c>
       <c r="F25">
-        <v>1.045503334921724</v>
+        <v>1.043550105183348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060253783809948</v>
+        <v>1.058708249539245</v>
       </c>
       <c r="J25">
-        <v>1.04513741489772</v>
+        <v>1.043267187923681</v>
       </c>
       <c r="K25">
-        <v>1.054502485901613</v>
+        <v>1.051777321947785</v>
       </c>
       <c r="L25">
-        <v>1.037171426824795</v>
+        <v>1.035646330793385</v>
       </c>
       <c r="M25">
-        <v>1.057434072417237</v>
+        <v>1.055507988840388</v>
       </c>
       <c r="N25">
-        <v>1.018089624022375</v>
+        <v>1.018255779929396</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054027481912106</v>
+        <v>1.052503142281333</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049655742483779</v>
+        <v>1.047742316056663</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.025616503025177</v>
       </c>
     </row>
   </sheetData>
